--- a/public/sample/Import_School_Template_a.xlsx
+++ b/public/sample/Import_School_Template_a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\idigi-cms-v2022\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC4D16-B81F-40C8-BC6F-D94F64BD7B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FD49C-5FE6-4882-B511-EC0209060FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,22 +64,29 @@
     <t>District/ Town *: Nhập theo đúng định dạng template</t>
   </si>
   <si>
-    <t>Expredate/ License *: Theo định dạng dd/mm/yyyy. Chỉ được nhập số, không được bỏ trống.</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/01/1011 </t>
+  </si>
+  <si>
+    <t>Expire date/ License *: Theo định dạng dd/mm/yyyy. Chỉ được nhập số, không được bỏ trống.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,23 +183,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -473,7 +481,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -521,8 +529,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
+      <c r="A7" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="17.25"/>
@@ -556,7 +564,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
       <c r="H10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
